--- a/tests/integration/data/Renderer008-Delete/template.xlsx
+++ b/tests/integration/data/Renderer008-Delete/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siemi\aProjects\xlsx-renderer-2\tests\integration\data\Renderer008-Delete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0E468A-619E-4B7A-9FCC-D779CF8312AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB4815C-FF55-401B-A943-E9676124E772}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24580" windowHeight="14620" xr2:uid="{7C6263DB-6299-4740-9858-DD8FF54A09C0}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Variable existes</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>IT IS REALLY USEFUL FOR MANY LOOPS</t>
+  </si>
+  <si>
+    <t>#! DELETE NeverExistedVarShouldNotThrowErrors</t>
+  </si>
+  <si>
+    <t>#! DELETE</t>
   </si>
 </sst>
 </file>
@@ -422,7 +428,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -454,6 +460,9 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -462,6 +471,9 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
